--- a/data/pca/factorExposure/factorExposure_2018-01-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-01-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.005190712189037522</v>
+        <v>0.005815226563209682</v>
       </c>
       <c r="C2">
-        <v>-0.003807498084811561</v>
+        <v>-0.03167795114405957</v>
       </c>
       <c r="D2">
-        <v>0.02014488473006715</v>
+        <v>0.02740436397155003</v>
       </c>
       <c r="E2">
-        <v>-0.04303028888843726</v>
+        <v>0.01380740733688891</v>
       </c>
       <c r="F2">
-        <v>-0.04934290930013777</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03852954452399533</v>
+      </c>
+      <c r="G2">
+        <v>-0.001681419568201309</v>
+      </c>
+      <c r="H2">
+        <v>-0.01974854872409715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.06539164931129927</v>
+        <v>0.06015813531235945</v>
       </c>
       <c r="C3">
-        <v>0.002133096155486707</v>
+        <v>-0.09031929165435523</v>
       </c>
       <c r="D3">
-        <v>-0.03154154930088109</v>
+        <v>0.01112907318550406</v>
       </c>
       <c r="E3">
-        <v>-0.1816672438714019</v>
+        <v>0.06089615918262969</v>
       </c>
       <c r="F3">
-        <v>-0.2258799594940589</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.1097407880529238</v>
+      </c>
+      <c r="G3">
+        <v>-0.04425318605889014</v>
+      </c>
+      <c r="H3">
+        <v>-0.04956073522978323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03429383281365745</v>
+        <v>0.04273628937413678</v>
       </c>
       <c r="C4">
-        <v>0.01543042739774782</v>
+        <v>-0.05793717934600238</v>
       </c>
       <c r="D4">
-        <v>0.03288924630758285</v>
+        <v>0.02066540977514749</v>
       </c>
       <c r="E4">
-        <v>-0.005677613176839985</v>
+        <v>-0.0003627988694362153</v>
       </c>
       <c r="F4">
-        <v>-0.055814203887945</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.04102708018131488</v>
+      </c>
+      <c r="G4">
+        <v>-0.03468445213247433</v>
+      </c>
+      <c r="H4">
+        <v>0.00564526391903284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.05793557619249817</v>
+        <v>0.02614751719708414</v>
       </c>
       <c r="C6">
-        <v>0.005450413928966048</v>
+        <v>-0.05737708661219617</v>
       </c>
       <c r="D6">
-        <v>0.04250835158672962</v>
+        <v>0.01476968480592248</v>
       </c>
       <c r="E6">
-        <v>-0.001520901242770971</v>
+        <v>-0.003498161977093177</v>
       </c>
       <c r="F6">
-        <v>-0.0421350138346279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.01698579309186202</v>
+      </c>
+      <c r="G6">
+        <v>-0.01720805656221035</v>
+      </c>
+      <c r="H6">
+        <v>-0.0001503732203049329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02612961520564852</v>
+        <v>0.009815270281235522</v>
       </c>
       <c r="C7">
-        <v>0.0701986295785892</v>
+        <v>-0.03070433783987517</v>
       </c>
       <c r="D7">
-        <v>0.00294848642787089</v>
+        <v>0.01208469106104105</v>
       </c>
       <c r="E7">
-        <v>-0.004440276236765244</v>
+        <v>-0.01563961248552026</v>
       </c>
       <c r="F7">
-        <v>-0.01280185560395621</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.02236761920311891</v>
+      </c>
+      <c r="G7">
+        <v>-0.06699268976632039</v>
+      </c>
+      <c r="H7">
+        <v>-0.03146366672089631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01674129019366695</v>
+        <v>-0.004891760205796302</v>
       </c>
       <c r="C8">
-        <v>0.009772143181913745</v>
+        <v>-0.005011087070446577</v>
       </c>
       <c r="D8">
-        <v>0.02189630201677712</v>
+        <v>0.001874038246090599</v>
       </c>
       <c r="E8">
-        <v>-0.006378516272316137</v>
+        <v>0.005295976436676411</v>
       </c>
       <c r="F8">
-        <v>-0.04866938375063764</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02882703137677797</v>
+      </c>
+      <c r="G8">
+        <v>-0.02047403973487651</v>
+      </c>
+      <c r="H8">
+        <v>0.005887849076925525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.02631260891546007</v>
+        <v>0.02081289799873609</v>
       </c>
       <c r="C9">
-        <v>0.01307498655014008</v>
+        <v>-0.03974417644916795</v>
       </c>
       <c r="D9">
-        <v>0.02649565356682312</v>
+        <v>0.01453029635070321</v>
       </c>
       <c r="E9">
-        <v>-0.02990019037273671</v>
+        <v>-0.0011361538624237</v>
       </c>
       <c r="F9">
-        <v>-0.05125695954764318</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.0313958516568999</v>
+      </c>
+      <c r="G9">
+        <v>-0.02257549747575721</v>
+      </c>
+      <c r="H9">
+        <v>-0.01749005787648468</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.05157769384687423</v>
+        <v>0.109119728174683</v>
       </c>
       <c r="C10">
-        <v>-0.01105451244911694</v>
+        <v>0.1718715969609445</v>
       </c>
       <c r="D10">
-        <v>-0.1622997376971273</v>
+        <v>-0.02076057956585128</v>
       </c>
       <c r="E10">
-        <v>-0.05033203915801</v>
+        <v>0.02447866001523352</v>
       </c>
       <c r="F10">
-        <v>0.00532078702394734</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.009097180895145588</v>
+      </c>
+      <c r="G10">
+        <v>-0.02495573471026583</v>
+      </c>
+      <c r="H10">
+        <v>-0.03699229583573529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02645127265566519</v>
+        <v>0.02480219700150067</v>
       </c>
       <c r="C11">
-        <v>-0.002627405865697808</v>
+        <v>-0.05151560912588231</v>
       </c>
       <c r="D11">
-        <v>0.04168322005369207</v>
+        <v>0.0003395641423917362</v>
       </c>
       <c r="E11">
-        <v>0.002777712039198803</v>
+        <v>-0.006871629546755013</v>
       </c>
       <c r="F11">
-        <v>-0.02215500532328448</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.03764559895821796</v>
+      </c>
+      <c r="G11">
+        <v>-0.001419209724827136</v>
+      </c>
+      <c r="H11">
+        <v>-0.009073437060744557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03436435157996149</v>
+        <v>0.02516264189290253</v>
       </c>
       <c r="C12">
-        <v>0.003377212714858503</v>
+        <v>-0.04554321441143161</v>
       </c>
       <c r="D12">
-        <v>0.03986993123702461</v>
+        <v>0.004697241530129311</v>
       </c>
       <c r="E12">
-        <v>0.01630781618239329</v>
+        <v>-0.01195163976425283</v>
       </c>
       <c r="F12">
-        <v>-0.003718998582100719</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01610083847992412</v>
+      </c>
+      <c r="G12">
+        <v>-0.01205110437009173</v>
+      </c>
+      <c r="H12">
+        <v>-0.007013374299252718</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01378545733029777</v>
+        <v>0.007119478652018881</v>
       </c>
       <c r="C13">
-        <v>-0.001214438671294155</v>
+        <v>-0.02742134876585951</v>
       </c>
       <c r="D13">
-        <v>0.01083260595354182</v>
+        <v>0.02322154106321603</v>
       </c>
       <c r="E13">
-        <v>-0.02408392668394475</v>
+        <v>0.01694476211467833</v>
       </c>
       <c r="F13">
-        <v>-0.05541377393670132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.05053772548195831</v>
+      </c>
+      <c r="G13">
+        <v>-0.01478097683951101</v>
+      </c>
+      <c r="H13">
+        <v>-0.006373857122819503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01288501242624644</v>
+        <v>0.004077016478946672</v>
       </c>
       <c r="C14">
-        <v>0.01529920486806785</v>
+        <v>-0.02065864527347709</v>
       </c>
       <c r="D14">
-        <v>0.007127360600242359</v>
+        <v>0.007697653825261763</v>
       </c>
       <c r="E14">
-        <v>-0.003057438859578496</v>
+        <v>-0.00642180281932374</v>
       </c>
       <c r="F14">
-        <v>-0.04486614169452435</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.01410470993025768</v>
+      </c>
+      <c r="G14">
+        <v>-0.03228166227445522</v>
+      </c>
+      <c r="H14">
+        <v>-0.001053925540561236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02550163025882162</v>
+        <v>0.02165808245403681</v>
       </c>
       <c r="C16">
-        <v>0.003067251608297856</v>
+        <v>-0.04086056946564821</v>
       </c>
       <c r="D16">
-        <v>0.04260538168978372</v>
+        <v>0.0001548662943339157</v>
       </c>
       <c r="E16">
-        <v>0.0006599614228032719</v>
+        <v>-0.005395270337516922</v>
       </c>
       <c r="F16">
-        <v>-0.02483860200270463</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.02348136272449967</v>
+      </c>
+      <c r="G16">
+        <v>-0.008664006530743094</v>
+      </c>
+      <c r="H16">
+        <v>-0.006617539885878122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.02730321489858242</v>
+        <v>0.0215786723820926</v>
       </c>
       <c r="C19">
-        <v>0.0008769389140980758</v>
+        <v>-0.04944940158142014</v>
       </c>
       <c r="D19">
-        <v>0.03113370080190764</v>
+        <v>0.01321897020036072</v>
       </c>
       <c r="E19">
-        <v>-0.01175417017102809</v>
+        <v>0.02235578987004832</v>
       </c>
       <c r="F19">
-        <v>-0.08443125890986221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.0597591060010895</v>
+      </c>
+      <c r="G19">
+        <v>-0.02846370987308802</v>
+      </c>
+      <c r="H19">
+        <v>0.00228542534140146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0001726317699206457</v>
+        <v>0.004417055114949315</v>
       </c>
       <c r="C20">
-        <v>0.004567942324163621</v>
+        <v>-0.02664581262118244</v>
       </c>
       <c r="D20">
-        <v>0.001018176407866216</v>
+        <v>0.01196712625292806</v>
       </c>
       <c r="E20">
-        <v>-0.02131134143475479</v>
+        <v>0.01628060680949499</v>
       </c>
       <c r="F20">
-        <v>-0.03083173701070326</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.02540118585365182</v>
+      </c>
+      <c r="G20">
+        <v>-0.01864362619801203</v>
+      </c>
+      <c r="H20">
+        <v>-0.005329485157839772</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0329248516215931</v>
+        <v>0.006213795941307948</v>
       </c>
       <c r="C21">
-        <v>0.02140972977689336</v>
+        <v>-0.03031906721274261</v>
       </c>
       <c r="D21">
-        <v>0.01742456819277039</v>
+        <v>0.0149433414034657</v>
       </c>
       <c r="E21">
-        <v>-0.008169654285543664</v>
+        <v>0.01603564104967828</v>
       </c>
       <c r="F21">
-        <v>-0.03652543984601989</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.04024763897996619</v>
+      </c>
+      <c r="G21">
+        <v>-0.03822880848487342</v>
+      </c>
+      <c r="H21">
+        <v>-0.01660762037010542</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02407383862709891</v>
+        <v>0.01702642653160993</v>
       </c>
       <c r="C24">
-        <v>0.0008664301923723056</v>
+        <v>-0.04291551520597681</v>
       </c>
       <c r="D24">
-        <v>0.03326635524878598</v>
+        <v>0.005304501309590786</v>
       </c>
       <c r="E24">
-        <v>-6.236124587993284e-05</v>
+        <v>-0.01008554922910584</v>
       </c>
       <c r="F24">
-        <v>-0.01774341784623973</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.02925053354534039</v>
+      </c>
+      <c r="G24">
+        <v>-0.003394435993639476</v>
+      </c>
+      <c r="H24">
+        <v>-0.01423446848008773</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03576880105045253</v>
+        <v>0.033495444050917</v>
       </c>
       <c r="C25">
-        <v>-0.000636232801139176</v>
+        <v>-0.05165894146039242</v>
       </c>
       <c r="D25">
-        <v>0.03366557003243842</v>
+        <v>0.008981528009182361</v>
       </c>
       <c r="E25">
-        <v>-0.008625946190927514</v>
+        <v>-0.01579737542451794</v>
       </c>
       <c r="F25">
-        <v>-0.03288396875359375</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.02761974422180369</v>
+      </c>
+      <c r="G25">
+        <v>-0.01293441712067048</v>
+      </c>
+      <c r="H25">
+        <v>-0.005408844666371914</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.0008880877225560366</v>
+        <v>0.001276759943445441</v>
       </c>
       <c r="C26">
-        <v>0.009903959504096048</v>
+        <v>-0.003871639752637863</v>
       </c>
       <c r="D26">
-        <v>0.01000819059891039</v>
+        <v>0.0231890146468171</v>
       </c>
       <c r="E26">
-        <v>-0.02541344067612588</v>
+        <v>-0.001463494654882349</v>
       </c>
       <c r="F26">
-        <v>-0.0251910573381951</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.01358610779355235</v>
+      </c>
+      <c r="G26">
+        <v>-0.0185115847157656</v>
+      </c>
+      <c r="H26">
+        <v>-0.007597056201412391</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.001282104847447944</v>
+        <v>0.0008544864201668434</v>
       </c>
       <c r="C27">
-        <v>0.0006331790647398183</v>
+        <v>0.0007418616300518099</v>
       </c>
       <c r="D27">
-        <v>-0.005691523162155068</v>
+        <v>-0.0007245919255950205</v>
       </c>
       <c r="E27">
-        <v>0.01252261394148154</v>
+        <v>0.0001428507432061633</v>
       </c>
       <c r="F27">
-        <v>-0.015716072840573</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.001361426767200039</v>
+      </c>
+      <c r="G27">
+        <v>-0.004476544313010178</v>
+      </c>
+      <c r="H27">
+        <v>0.008976706202881683</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.08908391265187827</v>
+        <v>0.1438883097066903</v>
       </c>
       <c r="C28">
-        <v>-0.0179211792985629</v>
+        <v>0.2088317964438162</v>
       </c>
       <c r="D28">
-        <v>-0.2344382210348097</v>
+        <v>-0.0130777165080092</v>
       </c>
       <c r="E28">
-        <v>-0.06253446739152882</v>
+        <v>0.01945412997847669</v>
       </c>
       <c r="F28">
-        <v>0.01564496410894172</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.00549632633710714</v>
+      </c>
+      <c r="G28">
+        <v>-0.04013833284644251</v>
+      </c>
+      <c r="H28">
+        <v>-0.03851058031965209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01407262923128989</v>
+        <v>0.008883316736873903</v>
       </c>
       <c r="C29">
-        <v>0.01130912793291747</v>
+        <v>-0.01765146348076027</v>
       </c>
       <c r="D29">
-        <v>0.007095755717147904</v>
+        <v>0.006598544219222892</v>
       </c>
       <c r="E29">
-        <v>-0.001300805078273964</v>
+        <v>-0.005848905895031218</v>
       </c>
       <c r="F29">
-        <v>-0.04617817293144058</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.007905904717635802</v>
+      </c>
+      <c r="G29">
+        <v>-0.02862232909866958</v>
+      </c>
+      <c r="H29">
+        <v>0.00523030400249292</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03747270719103324</v>
+        <v>0.02948400157626122</v>
       </c>
       <c r="C30">
-        <v>-0.04736874433366688</v>
+        <v>-0.08016218104704996</v>
       </c>
       <c r="D30">
-        <v>0.05742871390676808</v>
+        <v>0.02540762503156093</v>
       </c>
       <c r="E30">
-        <v>-0.01559251851908149</v>
+        <v>0.005015334076338652</v>
       </c>
       <c r="F30">
-        <v>-0.09402017280352948</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.05185506805488654</v>
+      </c>
+      <c r="G30">
+        <v>0.009709287781687385</v>
+      </c>
+      <c r="H30">
+        <v>0.0232676305504897</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04834762332981772</v>
+        <v>0.03334605495721835</v>
       </c>
       <c r="C31">
-        <v>0.0111363522865129</v>
+        <v>-0.020244308166134</v>
       </c>
       <c r="D31">
-        <v>0.01746232940220147</v>
+        <v>0.001736692187369016</v>
       </c>
       <c r="E31">
-        <v>0.0107297389066917</v>
+        <v>-0.01010247147668531</v>
       </c>
       <c r="F31">
-        <v>-0.02867830917016453</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.01413534593627034</v>
+      </c>
+      <c r="G31">
+        <v>-0.02365448803420844</v>
+      </c>
+      <c r="H31">
+        <v>-0.005866912524859624</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0003975578998774633</v>
+        <v>0.0007491344545221111</v>
       </c>
       <c r="C32">
-        <v>0.02857582421984164</v>
+        <v>-0.02918970444898573</v>
       </c>
       <c r="D32">
-        <v>0.02681065264223037</v>
+        <v>-0.00618760468133964</v>
       </c>
       <c r="E32">
-        <v>0.01236869755979587</v>
+        <v>0.002718566422906413</v>
       </c>
       <c r="F32">
-        <v>-0.05956683663800516</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.09083725539839536</v>
+      </c>
+      <c r="G32">
+        <v>-0.03905368539789304</v>
+      </c>
+      <c r="H32">
+        <v>0.01323966446868366</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02966292419655059</v>
+        <v>0.02123871389710042</v>
       </c>
       <c r="C33">
-        <v>-0.01930076198962602</v>
+        <v>-0.05001644298760232</v>
       </c>
       <c r="D33">
-        <v>0.03494255984909081</v>
+        <v>0.01268337866112817</v>
       </c>
       <c r="E33">
-        <v>-0.02458318495136609</v>
+        <v>0.01096745793287903</v>
       </c>
       <c r="F33">
-        <v>-0.04843481811811644</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.03591880002932717</v>
+      </c>
+      <c r="G33">
+        <v>-0.005048337421833343</v>
+      </c>
+      <c r="H33">
+        <v>-0.01937441824686789</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02616448930489847</v>
+        <v>0.03452023072969874</v>
       </c>
       <c r="C34">
-        <v>0.01058793330495874</v>
+        <v>-0.05381927540261248</v>
       </c>
       <c r="D34">
-        <v>0.0421801054314281</v>
+        <v>-0.007110964152720309</v>
       </c>
       <c r="E34">
-        <v>0.003577879808809128</v>
+        <v>-0.01800220514854102</v>
       </c>
       <c r="F34">
-        <v>-0.02782184954434092</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.03280655077854817</v>
+      </c>
+      <c r="G34">
+        <v>-0.01656566439127783</v>
+      </c>
+      <c r="H34">
+        <v>-0.01055157551247693</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0106372965214611</v>
+        <v>0.008438921758040601</v>
       </c>
       <c r="C36">
-        <v>0.005472402411102289</v>
+        <v>0.0004957426001132129</v>
       </c>
       <c r="D36">
-        <v>0.0009579996827717561</v>
+        <v>0.01026447803434931</v>
       </c>
       <c r="E36">
-        <v>-0.007667481127128519</v>
+        <v>0.0006446208053568549</v>
       </c>
       <c r="F36">
-        <v>-0.02204269981613281</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.01019823232782563</v>
+      </c>
+      <c r="G36">
+        <v>-0.01115215751452334</v>
+      </c>
+      <c r="H36">
+        <v>-0.009931482554972731</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01895925859199834</v>
+        <v>0.02535724010097922</v>
       </c>
       <c r="C38">
-        <v>-0.003547948224111775</v>
+        <v>-0.01834438683830779</v>
       </c>
       <c r="D38">
-        <v>0.003361249050830168</v>
+        <v>-0.009042828654524085</v>
       </c>
       <c r="E38">
-        <v>-0.02807963813063558</v>
+        <v>-0.001677413916980538</v>
       </c>
       <c r="F38">
-        <v>-0.04625709911120336</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.01830505573219621</v>
+      </c>
+      <c r="G38">
+        <v>-0.01654009266788498</v>
+      </c>
+      <c r="H38">
+        <v>-0.004862530887792818</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01878235228922445</v>
+        <v>0.01640347734794738</v>
       </c>
       <c r="C39">
-        <v>0.008680186059928336</v>
+        <v>-0.08352582238957378</v>
       </c>
       <c r="D39">
-        <v>0.0604967283588198</v>
+        <v>0.01081040261366126</v>
       </c>
       <c r="E39">
-        <v>-0.01531147086566576</v>
+        <v>-0.00160937976316936</v>
       </c>
       <c r="F39">
-        <v>-0.05277886963526385</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.05037635813909468</v>
+      </c>
+      <c r="G39">
+        <v>-0.003724878825600796</v>
+      </c>
+      <c r="H39">
+        <v>-0.01830342234286102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02511443368054821</v>
+        <v>0.01686937268713325</v>
       </c>
       <c r="C40">
-        <v>-0.0006098837533049683</v>
+        <v>-0.03017113278731189</v>
       </c>
       <c r="D40">
-        <v>0.04417216512090175</v>
+        <v>0.01135430860430059</v>
       </c>
       <c r="E40">
-        <v>-0.01214511135806247</v>
+        <v>0.001065159798211473</v>
       </c>
       <c r="F40">
-        <v>-0.02241747903296066</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.03213626310677644</v>
+      </c>
+      <c r="G40">
+        <v>-0.007022793861558969</v>
+      </c>
+      <c r="H40">
+        <v>-0.01571055650796429</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.008843980448313166</v>
+        <v>0.0103706735245998</v>
       </c>
       <c r="C41">
-        <v>-0.001257814924459267</v>
+        <v>0.008576645992573764</v>
       </c>
       <c r="D41">
-        <v>-0.0111026613644117</v>
+        <v>0.002694062510187215</v>
       </c>
       <c r="E41">
-        <v>-0.01067385630547725</v>
+        <v>-0.004930844054565836</v>
       </c>
       <c r="F41">
-        <v>-0.003286045375572867</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.005824850872623401</v>
+      </c>
+      <c r="G41">
+        <v>-0.004345366102801928</v>
+      </c>
+      <c r="H41">
+        <v>-0.008436432837901646</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2132496310996914</v>
+        <v>0.04375803819597376</v>
       </c>
       <c r="C42">
-        <v>-0.1545477120519815</v>
+        <v>-0.09825601503243607</v>
       </c>
       <c r="D42">
-        <v>0.2292043659371329</v>
+        <v>0.1179815615677997</v>
       </c>
       <c r="E42">
-        <v>-0.6265538608431913</v>
+        <v>0.1049515054587523</v>
       </c>
       <c r="F42">
-        <v>0.6485267049673642</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.3422362192396048</v>
+      </c>
+      <c r="G42">
+        <v>0.4236164354966818</v>
+      </c>
+      <c r="H42">
+        <v>-0.7995034202946004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01540716530341426</v>
+        <v>0.02246626634127139</v>
       </c>
       <c r="C43">
-        <v>-0.004754660166523573</v>
+        <v>-0.0001163388225217994</v>
       </c>
       <c r="D43">
-        <v>-0.008889173864126538</v>
+        <v>0.002465400746076771</v>
       </c>
       <c r="E43">
-        <v>-0.01465496178164364</v>
+        <v>-0.001320151688289408</v>
       </c>
       <c r="F43">
-        <v>-0.01020291537293889</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.01487021322303967</v>
+      </c>
+      <c r="G43">
+        <v>-0.003372641480153098</v>
+      </c>
+      <c r="H43">
+        <v>-0.01324684082439327</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.008018692331095038</v>
+        <v>0.009610577130262202</v>
       </c>
       <c r="C44">
-        <v>0.0117546098570962</v>
+        <v>-0.04722563966169635</v>
       </c>
       <c r="D44">
-        <v>0.0177607927407641</v>
+        <v>0.005723543423810752</v>
       </c>
       <c r="E44">
-        <v>-0.03584458727332966</v>
+        <v>0.01091897864699838</v>
       </c>
       <c r="F44">
-        <v>-0.06969892640571543</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.03514984733653702</v>
+      </c>
+      <c r="G44">
+        <v>-0.02069798167707214</v>
+      </c>
+      <c r="H44">
+        <v>-0.0226497861634411</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01314889242122113</v>
+        <v>-0.001063699902187668</v>
       </c>
       <c r="C46">
-        <v>0.002689786378085974</v>
+        <v>-0.009937716058508933</v>
       </c>
       <c r="D46">
-        <v>0.03503028847318707</v>
+        <v>0.0110913267948703</v>
       </c>
       <c r="E46">
-        <v>-0.0123070254774172</v>
+        <v>0.0001517845425745406</v>
       </c>
       <c r="F46">
-        <v>-0.07000107988368209</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.007085214456209146</v>
+      </c>
+      <c r="G46">
+        <v>-0.01799716391967546</v>
+      </c>
+      <c r="H46">
+        <v>0.002927263877989523</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07066757687599631</v>
+        <v>0.05637041583356207</v>
       </c>
       <c r="C47">
-        <v>-0.005047418449453161</v>
+        <v>-0.05310639479946931</v>
       </c>
       <c r="D47">
-        <v>0.01843408683867868</v>
+        <v>-0.006274207949701555</v>
       </c>
       <c r="E47">
-        <v>0.03208452840130103</v>
+        <v>-0.01002588474696042</v>
       </c>
       <c r="F47">
-        <v>0.00261464100982457</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.0449253670221178</v>
+      </c>
+      <c r="G47">
+        <v>-0.02275431924405755</v>
+      </c>
+      <c r="H47">
+        <v>0.006858599315556758</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02117962907678618</v>
+        <v>0.01015630184263758</v>
       </c>
       <c r="C48">
-        <v>0.004272643099242793</v>
+        <v>-0.003561292139463839</v>
       </c>
       <c r="D48">
-        <v>0.005839840105279727</v>
+        <v>0.0004141710482089214</v>
       </c>
       <c r="E48">
-        <v>-0.004333281974875595</v>
+        <v>-0.001567352945142547</v>
       </c>
       <c r="F48">
-        <v>-0.02622763936606208</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.001668847545773034</v>
+      </c>
+      <c r="G48">
+        <v>-0.01575136453336269</v>
+      </c>
+      <c r="H48">
+        <v>-0.004481534123164727</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07958445314733163</v>
+        <v>0.06140352752082455</v>
       </c>
       <c r="C50">
-        <v>0.02335347725699143</v>
+        <v>-0.05411684214028442</v>
       </c>
       <c r="D50">
-        <v>0.04084895546950686</v>
+        <v>-0.005037493782908739</v>
       </c>
       <c r="E50">
-        <v>0.009311060574825556</v>
+        <v>-0.01022296775825271</v>
       </c>
       <c r="F50">
-        <v>-0.02408252610281534</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.03763430468136709</v>
+      </c>
+      <c r="G50">
+        <v>-0.04748660036757874</v>
+      </c>
+      <c r="H50">
+        <v>-0.007283325815768028</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.009181783333411979</v>
+        <v>0.009972335227757504</v>
       </c>
       <c r="C51">
-        <v>0.007244281801102766</v>
+        <v>-0.02256721753691344</v>
       </c>
       <c r="D51">
-        <v>-0.01513368176483967</v>
+        <v>0.007995403753034478</v>
       </c>
       <c r="E51">
-        <v>-0.04095805384766381</v>
+        <v>-0.0004606875210495017</v>
       </c>
       <c r="F51">
-        <v>-0.06504475463412014</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.04761005566886679</v>
+      </c>
+      <c r="G51">
+        <v>-0.02265632106434199</v>
+      </c>
+      <c r="H51">
+        <v>-0.02559483989253341</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.102966650941141</v>
+        <v>0.07984659684096548</v>
       </c>
       <c r="C53">
-        <v>0.006178280493584423</v>
+        <v>-0.07943765681732692</v>
       </c>
       <c r="D53">
-        <v>0.04753621142631557</v>
+        <v>-0.006875021328570138</v>
       </c>
       <c r="E53">
-        <v>0.05696271685200754</v>
+        <v>-0.03616446293289625</v>
       </c>
       <c r="F53">
-        <v>0.009478337172683822</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.06208915827772208</v>
+      </c>
+      <c r="G53">
+        <v>-0.02764683674093973</v>
+      </c>
+      <c r="H53">
+        <v>0.00314805298647098</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02271764476726392</v>
+        <v>0.02404775764807367</v>
       </c>
       <c r="C54">
-        <v>0.008915070480700667</v>
+        <v>0.001542459125943353</v>
       </c>
       <c r="D54">
-        <v>-0.0008912432958805092</v>
+        <v>-0.005342271792434833</v>
       </c>
       <c r="E54">
-        <v>0.01246503364951929</v>
+        <v>0.001902373835439291</v>
       </c>
       <c r="F54">
-        <v>-0.0348547547735954</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.01438673912661461</v>
+      </c>
+      <c r="G54">
+        <v>-0.0239312861867373</v>
+      </c>
+      <c r="H54">
+        <v>-0.00136048260833919</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.07498725158795051</v>
+        <v>0.05613634738760463</v>
       </c>
       <c r="C55">
-        <v>-7.231458427310639e-05</v>
+        <v>-0.06698342740383859</v>
       </c>
       <c r="D55">
-        <v>0.06482674234189946</v>
+        <v>-0.005378281932760789</v>
       </c>
       <c r="E55">
-        <v>0.0317183534645675</v>
+        <v>-0.02391362247441095</v>
       </c>
       <c r="F55">
-        <v>0.01134923368381479</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.05515260070422935</v>
+      </c>
+      <c r="G55">
+        <v>-0.01423322136006257</v>
+      </c>
+      <c r="H55">
+        <v>0.004819483957491566</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1417908707067682</v>
+        <v>0.1220584093131534</v>
       </c>
       <c r="C56">
-        <v>-0.003192945438909717</v>
+        <v>-0.1108710752036872</v>
       </c>
       <c r="D56">
-        <v>0.06561041017512163</v>
+        <v>-0.01553843676512554</v>
       </c>
       <c r="E56">
-        <v>0.07947710142930291</v>
+        <v>-0.03662930497763293</v>
       </c>
       <c r="F56">
-        <v>0.0388460179426753</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.104595204659618</v>
+      </c>
+      <c r="G56">
+        <v>-0.01538871652421886</v>
+      </c>
+      <c r="H56">
+        <v>0.02661321060806232</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.034079437834974</v>
+        <v>0.01502214258118195</v>
       </c>
       <c r="C57">
-        <v>-0.009298867797606476</v>
+        <v>-0.01651467998836014</v>
       </c>
       <c r="D57">
-        <v>0.01542190991525185</v>
+        <v>0.02346437482934788</v>
       </c>
       <c r="E57">
-        <v>-0.04349610135995202</v>
+        <v>0.03045024484967303</v>
       </c>
       <c r="F57">
-        <v>-0.03262279909482531</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.02859558848089417</v>
+      </c>
+      <c r="G57">
+        <v>-0.01825337938534692</v>
+      </c>
+      <c r="H57">
+        <v>-0.01189233665235372</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1843238715937607</v>
+        <v>0.0792987126762756</v>
       </c>
       <c r="C58">
-        <v>-0.1356682706254601</v>
+        <v>-0.1343529078905953</v>
       </c>
       <c r="D58">
-        <v>0.1455858741704528</v>
+        <v>0.01683671314197959</v>
       </c>
       <c r="E58">
-        <v>-0.429428020399904</v>
+        <v>0.9613398451977376</v>
       </c>
       <c r="F58">
-        <v>-0.5328487568285522</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.05411807880404296</v>
+      </c>
+      <c r="G58">
+        <v>-0.09791957862428492</v>
+      </c>
+      <c r="H58">
+        <v>0.1178921972205464</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.08775238744723031</v>
+        <v>0.1775286681348975</v>
       </c>
       <c r="C59">
-        <v>-0.03679698771529694</v>
+        <v>0.1958231435389818</v>
       </c>
       <c r="D59">
-        <v>-0.1980514051538272</v>
+        <v>-0.02115039406829469</v>
       </c>
       <c r="E59">
-        <v>-0.04688363133691004</v>
+        <v>0.01709859238283438</v>
       </c>
       <c r="F59">
-        <v>-0.03882006762658697</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.0184700600902733</v>
+      </c>
+      <c r="G59">
+        <v>-0.0178085465740751</v>
+      </c>
+      <c r="H59">
+        <v>-0.01157321223426462</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2037923279144905</v>
+        <v>0.2962399759836038</v>
       </c>
       <c r="C60">
-        <v>-0.0472982169925802</v>
+        <v>-0.1167058397670404</v>
       </c>
       <c r="D60">
-        <v>-0.02092519673201024</v>
+        <v>-0.003203297974921436</v>
       </c>
       <c r="E60">
-        <v>-0.06879576183760208</v>
+        <v>-0.05276289719902218</v>
       </c>
       <c r="F60">
-        <v>-0.1109048513964515</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.3553967334833731</v>
+      </c>
+      <c r="G60">
+        <v>0.103488018260232</v>
+      </c>
+      <c r="H60">
+        <v>-0.03059646350437753</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02726875820835234</v>
+        <v>0.02102751489325456</v>
       </c>
       <c r="C61">
-        <v>0.003479241586488401</v>
+        <v>-0.06572942949979685</v>
       </c>
       <c r="D61">
-        <v>0.05185435469112561</v>
+        <v>0.004010999114189194</v>
       </c>
       <c r="E61">
-        <v>-0.00592850924416999</v>
+        <v>-0.005169211810232027</v>
       </c>
       <c r="F61">
-        <v>-0.03072300397756222</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03735516892061533</v>
+      </c>
+      <c r="G61">
+        <v>-0.008634064187036756</v>
+      </c>
+      <c r="H61">
+        <v>-0.008267526495692807</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01276876617360894</v>
+        <v>0.00765145168001625</v>
       </c>
       <c r="C63">
-        <v>0.007071121952035301</v>
+        <v>-0.02766715934328982</v>
       </c>
       <c r="D63">
-        <v>0.02342498439631983</v>
+        <v>0.007439381589554331</v>
       </c>
       <c r="E63">
-        <v>-0.001069796146837273</v>
+        <v>-0.0136110072363386</v>
       </c>
       <c r="F63">
-        <v>-0.01152335009340508</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.003222805230431447</v>
+      </c>
+      <c r="G63">
+        <v>-0.02105523176579789</v>
+      </c>
+      <c r="H63">
+        <v>-0.0005294712628028935</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04352361608052382</v>
+        <v>0.04091148033451766</v>
       </c>
       <c r="C64">
-        <v>0.001595895744762555</v>
+        <v>-0.03747797728588134</v>
       </c>
       <c r="D64">
-        <v>0.02903573171345918</v>
+        <v>0.003076480113059313</v>
       </c>
       <c r="E64">
-        <v>-0.0008199243391581145</v>
+        <v>-0.01757888486636824</v>
       </c>
       <c r="F64">
-        <v>-0.02415875687448552</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.01645124395720238</v>
+      </c>
+      <c r="G64">
+        <v>-0.002901607760455462</v>
+      </c>
+      <c r="H64">
+        <v>-0.02601410694390739</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.06435826642365527</v>
+        <v>0.07110142550301823</v>
       </c>
       <c r="C65">
-        <v>0.005808885426652932</v>
+        <v>-0.08148501794658161</v>
       </c>
       <c r="D65">
-        <v>0.04506872285050585</v>
+        <v>0.01315307156713897</v>
       </c>
       <c r="E65">
-        <v>0.003831307897927399</v>
+        <v>-0.01427327303853787</v>
       </c>
       <c r="F65">
-        <v>-0.03907135715660159</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03367938570663769</v>
+      </c>
+      <c r="G65">
+        <v>-0.00806266658413558</v>
+      </c>
+      <c r="H65">
+        <v>0.01072150467138461</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04369546721950905</v>
+        <v>0.03477794445742826</v>
       </c>
       <c r="C66">
-        <v>-0.009104190286620068</v>
+        <v>-0.1232999045404028</v>
       </c>
       <c r="D66">
-        <v>0.07279192726822609</v>
+        <v>0.009107769061232739</v>
       </c>
       <c r="E66">
-        <v>0.02497641120600308</v>
+        <v>-0.004332855697783467</v>
       </c>
       <c r="F66">
-        <v>-0.07321756358213914</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.06266106298662343</v>
+      </c>
+      <c r="G66">
+        <v>-0.001511899955329271</v>
+      </c>
+      <c r="H66">
+        <v>0.01002264980232434</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03345921591544975</v>
+        <v>0.04901137512527348</v>
       </c>
       <c r="C67">
-        <v>-0.007030477162418013</v>
+        <v>-0.02592795452613709</v>
       </c>
       <c r="D67">
-        <v>-0.002034271505338827</v>
+        <v>-0.007942134263394192</v>
       </c>
       <c r="E67">
-        <v>-0.01058644329957422</v>
+        <v>-0.008081451967064024</v>
       </c>
       <c r="F67">
-        <v>-0.03713978346048888</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01733405035778667</v>
+      </c>
+      <c r="G67">
+        <v>-0.01825599264936736</v>
+      </c>
+      <c r="H67">
+        <v>0.002160509550169363</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08823164427520744</v>
+        <v>0.1660515084394639</v>
       </c>
       <c r="C68">
-        <v>-0.03680370943512595</v>
+        <v>0.2368650084721151</v>
       </c>
       <c r="D68">
-        <v>-0.2206970578600156</v>
+        <v>-0.002646274776248638</v>
       </c>
       <c r="E68">
-        <v>-0.03969396447130323</v>
+        <v>0.02450595077366495</v>
       </c>
       <c r="F68">
-        <v>-0.002285580570927144</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01730615636021362</v>
+      </c>
+      <c r="G68">
+        <v>-0.01726071935956444</v>
+      </c>
+      <c r="H68">
+        <v>-0.02338163463664304</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05364204360437483</v>
+        <v>0.05696656146220202</v>
       </c>
       <c r="C69">
-        <v>-0.003843047976962511</v>
+        <v>-0.05135805430286329</v>
       </c>
       <c r="D69">
-        <v>0.02911372751383407</v>
+        <v>-0.01055493151035701</v>
       </c>
       <c r="E69">
-        <v>0.02969715489877138</v>
+        <v>-0.02854937670104542</v>
       </c>
       <c r="F69">
-        <v>-0.01245352004744261</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.01834542173964331</v>
+      </c>
+      <c r="G69">
+        <v>-0.01585354926039043</v>
+      </c>
+      <c r="H69">
+        <v>0.00844911794004987</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.08247835721024525</v>
+        <v>0.1529650824521923</v>
       </c>
       <c r="C71">
-        <v>-0.02260608362782863</v>
+        <v>0.2043994330039103</v>
       </c>
       <c r="D71">
-        <v>-0.219833260571273</v>
+        <v>-0.009557336405117405</v>
       </c>
       <c r="E71">
-        <v>-0.0840876481263956</v>
+        <v>0.03743663410622715</v>
       </c>
       <c r="F71">
-        <v>0.03227260718642962</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.01933086392264006</v>
+      </c>
+      <c r="G71">
+        <v>-0.02335278347909618</v>
+      </c>
+      <c r="H71">
+        <v>-0.04831610918670462</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1102189585963853</v>
+        <v>0.07402820610230511</v>
       </c>
       <c r="C72">
-        <v>-0.004772200332346091</v>
+        <v>-0.09117346593479603</v>
       </c>
       <c r="D72">
-        <v>0.1109431183530341</v>
+        <v>-0.01239480473220029</v>
       </c>
       <c r="E72">
-        <v>0.01170014831071974</v>
+        <v>-0.02910375633157807</v>
       </c>
       <c r="F72">
-        <v>-0.1588119227849301</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.04073396188729195</v>
+      </c>
+      <c r="G72">
+        <v>-0.0005097777612215643</v>
+      </c>
+      <c r="H72">
+        <v>0.02666093999959418</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.240670994171936</v>
+        <v>0.3994218762511166</v>
       </c>
       <c r="C73">
-        <v>-0.106445738314664</v>
+        <v>-0.180934109936634</v>
       </c>
       <c r="D73">
-        <v>0.007227280327644</v>
+        <v>0.001236494035309813</v>
       </c>
       <c r="E73">
-        <v>-0.1424020670154212</v>
+        <v>-0.02441118219266852</v>
       </c>
       <c r="F73">
-        <v>-0.1100158068531819</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.4754086965408207</v>
+      </c>
+      <c r="G73">
+        <v>0.1674691469795781</v>
+      </c>
+      <c r="H73">
+        <v>-0.09138315337168487</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1334107389725891</v>
+        <v>0.1006921592016342</v>
       </c>
       <c r="C74">
-        <v>-0.009997537883239798</v>
+        <v>-0.1185491646774435</v>
       </c>
       <c r="D74">
-        <v>0.0701037190647341</v>
+        <v>-0.01257925909744959</v>
       </c>
       <c r="E74">
-        <v>0.07874081671607328</v>
+        <v>-0.04102927739446313</v>
       </c>
       <c r="F74">
-        <v>0.02784203106370917</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.08449344221084838</v>
+      </c>
+      <c r="G74">
+        <v>-0.02719923196526197</v>
+      </c>
+      <c r="H74">
+        <v>0.01243539797685186</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2695547683189789</v>
+        <v>0.2274885867511533</v>
       </c>
       <c r="C75">
-        <v>-0.02950493468578752</v>
+        <v>-0.1761333968760045</v>
       </c>
       <c r="D75">
-        <v>0.09488297883168778</v>
+        <v>-0.03305588766856456</v>
       </c>
       <c r="E75">
-        <v>0.1697406152463028</v>
+        <v>-0.0501383982425434</v>
       </c>
       <c r="F75">
-        <v>0.0200627363782173</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.2215533288144189</v>
+      </c>
+      <c r="G75">
+        <v>-0.02323976037478706</v>
+      </c>
+      <c r="H75">
+        <v>0.07719960529763184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2689607682467849</v>
+        <v>0.1445031935587036</v>
       </c>
       <c r="C76">
-        <v>-0.009854528581959123</v>
+        <v>-0.1458906842206589</v>
       </c>
       <c r="D76">
-        <v>0.1109691759477603</v>
+        <v>-0.02689190551484563</v>
       </c>
       <c r="E76">
-        <v>0.2121495029529898</v>
+        <v>-0.07011151666302462</v>
       </c>
       <c r="F76">
-        <v>0.07229245532451456</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1841786727556561</v>
+      </c>
+      <c r="G76">
+        <v>-0.04442475610698361</v>
+      </c>
+      <c r="H76">
+        <v>0.05474933003938286</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.07504767065341854</v>
+        <v>0.04747736822561686</v>
       </c>
       <c r="C77">
-        <v>-0.01111212230326203</v>
+        <v>-0.07114959242603573</v>
       </c>
       <c r="D77">
-        <v>0.07215984299949339</v>
+        <v>0.01256319973253932</v>
       </c>
       <c r="E77">
-        <v>-0.113147180854569</v>
+        <v>0.02942314806184992</v>
       </c>
       <c r="F77">
-        <v>-0.01812982756798975</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.007331173493763804</v>
+      </c>
+      <c r="G77">
+        <v>-0.02025774418448809</v>
+      </c>
+      <c r="H77">
+        <v>-0.03646589870780493</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03579457579289724</v>
+        <v>0.03458966549400568</v>
       </c>
       <c r="C78">
-        <v>0.005350472615646537</v>
+        <v>-0.06093145825547823</v>
       </c>
       <c r="D78">
-        <v>0.0563820765063141</v>
+        <v>0.004309613612170192</v>
       </c>
       <c r="E78">
-        <v>-0.02343898071216719</v>
+        <v>0.007312986052366331</v>
       </c>
       <c r="F78">
-        <v>-0.07558782564248967</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.05083944001893897</v>
+      </c>
+      <c r="G78">
+        <v>-0.01336428324261255</v>
+      </c>
+      <c r="H78">
+        <v>-0.005186853242421965</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2382347463871388</v>
+        <v>0.05709486945183406</v>
       </c>
       <c r="C80">
-        <v>0.9408133199480563</v>
+        <v>-0.08869959859972323</v>
       </c>
       <c r="D80">
-        <v>-0.07060098634862765</v>
+        <v>0.01148734546653188</v>
       </c>
       <c r="E80">
-        <v>-0.1538413960473753</v>
+        <v>-0.06602853213625129</v>
       </c>
       <c r="F80">
-        <v>0.02404502799004743</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.01553488964172075</v>
+      </c>
+      <c r="G80">
+        <v>-0.8460164518618837</v>
+      </c>
+      <c r="H80">
+        <v>-0.4392786748876413</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.209194276237821</v>
+        <v>0.1367125814924743</v>
       </c>
       <c r="C81">
-        <v>-0.01259372627985845</v>
+        <v>-0.1008862395386146</v>
       </c>
       <c r="D81">
-        <v>0.06067342910442454</v>
+        <v>-0.01998085708086326</v>
       </c>
       <c r="E81">
-        <v>0.137121673822109</v>
+        <v>-0.02862649716494381</v>
       </c>
       <c r="F81">
-        <v>-0.004499098064773745</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1414830422129932</v>
+      </c>
+      <c r="G81">
+        <v>-0.03636194559260798</v>
+      </c>
+      <c r="H81">
+        <v>0.03776220555540157</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.0242801460069564</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.01753029450099796</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.002045721377787299</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-0.01514186359928747</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.01419862193411495</v>
+      </c>
+      <c r="G82">
+        <v>0.001472566693513411</v>
+      </c>
+      <c r="H82">
+        <v>0.00373450437488654</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03243771822166961</v>
+        <v>0.02318428308416189</v>
       </c>
       <c r="C83">
-        <v>-0.007347879149618956</v>
+        <v>-0.01985676034771563</v>
       </c>
       <c r="D83">
-        <v>0.008088480334226125</v>
+        <v>0.004658022585646848</v>
       </c>
       <c r="E83">
-        <v>-0.03782776798152893</v>
+        <v>0.01794531118929242</v>
       </c>
       <c r="F83">
-        <v>-0.03233486702602375</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.03379510630212206</v>
+      </c>
+      <c r="G83">
+        <v>-0.01660668925831429</v>
+      </c>
+      <c r="H83">
+        <v>-0.01362809172794039</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2584427783056354</v>
+        <v>0.2183759540804935</v>
       </c>
       <c r="C85">
-        <v>-0.03878053184345634</v>
+        <v>-0.1877805014352117</v>
       </c>
       <c r="D85">
-        <v>0.116969938246527</v>
+        <v>-0.02210565730519385</v>
       </c>
       <c r="E85">
-        <v>0.1897525407866132</v>
+        <v>-0.08195452481401347</v>
       </c>
       <c r="F85">
-        <v>0.04241203824175561</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.2302381338389336</v>
+      </c>
+      <c r="G85">
+        <v>0.01850716625849086</v>
+      </c>
+      <c r="H85">
+        <v>0.1029431610027635</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.006486767649807153</v>
+        <v>0.004936817152670068</v>
       </c>
       <c r="C86">
-        <v>0.009119704483444201</v>
+        <v>-0.03071886625523429</v>
       </c>
       <c r="D86">
-        <v>0.04074204728478643</v>
+        <v>0.009144221032003002</v>
       </c>
       <c r="E86">
-        <v>-0.02757739085446148</v>
+        <v>0.006761197776789144</v>
       </c>
       <c r="F86">
-        <v>-0.07029546690709851</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.02975881518356477</v>
+      </c>
+      <c r="G86">
+        <v>-0.03333883771987024</v>
+      </c>
+      <c r="H86">
+        <v>-0.04159316725167442</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02870220665132583</v>
+        <v>0.01356270286879431</v>
       </c>
       <c r="C87">
-        <v>0.006486204717675657</v>
+        <v>-0.03753908536065387</v>
       </c>
       <c r="D87">
-        <v>0.03158727819531815</v>
+        <v>0.01000320860342559</v>
       </c>
       <c r="E87">
-        <v>-0.05816294914767616</v>
+        <v>0.04829530774798988</v>
       </c>
       <c r="F87">
-        <v>-0.09442343767165003</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.06670290561119095</v>
+      </c>
+      <c r="G87">
+        <v>-0.02441608673427898</v>
+      </c>
+      <c r="H87">
+        <v>-0.02865574039626633</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04380104781116279</v>
+        <v>0.06560815172651351</v>
       </c>
       <c r="C88">
-        <v>-0.008534138163190144</v>
+        <v>-0.03858420072750764</v>
       </c>
       <c r="D88">
-        <v>-0.002589858505895779</v>
+        <v>0.01930704064609398</v>
       </c>
       <c r="E88">
-        <v>0.002284524711286596</v>
+        <v>-0.009024297176719553</v>
       </c>
       <c r="F88">
-        <v>0.005157646956893774</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.03083956790565501</v>
+      </c>
+      <c r="G88">
+        <v>-0.008773269711254335</v>
+      </c>
+      <c r="H88">
+        <v>0.003507922590174294</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1465895989307676</v>
+        <v>0.2590091381231504</v>
       </c>
       <c r="C89">
-        <v>-0.07229104882190648</v>
+        <v>0.3459946244516424</v>
       </c>
       <c r="D89">
-        <v>-0.3754132466740667</v>
+        <v>-0.01488694697038098</v>
       </c>
       <c r="E89">
-        <v>-0.01276164315731841</v>
+        <v>0.009577578269746895</v>
       </c>
       <c r="F89">
-        <v>-0.02913728319105981</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.01622029540829809</v>
+      </c>
+      <c r="G89">
+        <v>-0.01838856053365616</v>
+      </c>
+      <c r="H89">
+        <v>-0.0003837508545424533</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.09125962239398659</v>
+        <v>0.217038887785165</v>
       </c>
       <c r="C90">
-        <v>-0.06554092775618062</v>
+        <v>0.3191871193417651</v>
       </c>
       <c r="D90">
-        <v>-0.34105254839826</v>
+        <v>-0.01566862984938976</v>
       </c>
       <c r="E90">
-        <v>-0.01648534257446149</v>
+        <v>0.02361237113725221</v>
       </c>
       <c r="F90">
-        <v>0.03141441099686155</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.0429472985652599</v>
+      </c>
+      <c r="G90">
+        <v>-0.0003531189730380518</v>
+      </c>
+      <c r="H90">
+        <v>-0.006916686326767655</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.295175019389485</v>
+        <v>0.193847529340583</v>
       </c>
       <c r="C91">
-        <v>-0.03842961385676197</v>
+        <v>-0.1399727520681329</v>
       </c>
       <c r="D91">
-        <v>0.1313904290434761</v>
+        <v>-0.0291346149520143</v>
       </c>
       <c r="E91">
-        <v>0.2066211749019825</v>
+        <v>-0.06511363570039413</v>
       </c>
       <c r="F91">
-        <v>0.1230316667940545</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.2166508193855454</v>
+      </c>
+      <c r="G91">
+        <v>-0.02327139522921852</v>
+      </c>
+      <c r="H91">
+        <v>0.05554377529763738</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2147865017168542</v>
+        <v>0.235841132783098</v>
       </c>
       <c r="C92">
-        <v>-0.07652919996947546</v>
+        <v>0.2471053077091501</v>
       </c>
       <c r="D92">
-        <v>-0.3747444196948528</v>
+        <v>-0.05748216002240784</v>
       </c>
       <c r="E92">
-        <v>0.07679257444209023</v>
+        <v>0.03355319071691216</v>
       </c>
       <c r="F92">
-        <v>0.03317074476171779</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.125725646864331</v>
+      </c>
+      <c r="G92">
+        <v>-0.06828743858405652</v>
+      </c>
+      <c r="H92">
+        <v>0.02464721335360974</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1387932283155832</v>
+        <v>0.2476673852612944</v>
       </c>
       <c r="C93">
-        <v>-0.09322089632416425</v>
+        <v>0.3068112480473273</v>
       </c>
       <c r="D93">
-        <v>-0.3932501075411499</v>
+        <v>-0.02334686177615568</v>
       </c>
       <c r="E93">
-        <v>-0.05332552466127494</v>
+        <v>0.03198947020065788</v>
       </c>
       <c r="F93">
-        <v>0.0656509671950589</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.01682439428155935</v>
+      </c>
+      <c r="G93">
+        <v>0.01494245117742468</v>
+      </c>
+      <c r="H93">
+        <v>-0.03240864549716935</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3225489123845176</v>
+        <v>0.2493375980889701</v>
       </c>
       <c r="C94">
-        <v>-0.07071268560297017</v>
+        <v>-0.1695689531981637</v>
       </c>
       <c r="D94">
-        <v>0.08453128997426927</v>
+        <v>-0.01762100945582366</v>
       </c>
       <c r="E94">
-        <v>0.238790731530154</v>
+        <v>-0.08185054848936088</v>
       </c>
       <c r="F94">
-        <v>0.008709296762460655</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.3570366744732758</v>
+      </c>
+      <c r="G94">
+        <v>0.005410769587965908</v>
+      </c>
+      <c r="H94">
+        <v>0.2738672321768492</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.05795318300508594</v>
+        <v>0.07246235555788015</v>
       </c>
       <c r="C95">
-        <v>-0.0729828538646707</v>
+        <v>-0.1208139207509605</v>
       </c>
       <c r="D95">
-        <v>0.02479531020047084</v>
+        <v>-0.009853947246180626</v>
       </c>
       <c r="E95">
-        <v>0.0404753518685886</v>
+        <v>0.02766071291120193</v>
       </c>
       <c r="F95">
-        <v>-0.06301304792111212</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.1108552984653396</v>
+      </c>
+      <c r="G95">
+        <v>0.06529636070048504</v>
+      </c>
+      <c r="H95">
+        <v>0.02570329744227008</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1910139563319942</v>
+        <v>0.2162133593712664</v>
       </c>
       <c r="C98">
-        <v>-0.06595279589228197</v>
+        <v>-0.07456818521661279</v>
       </c>
       <c r="D98">
-        <v>-0.03186070830636754</v>
+        <v>-0.02528665702561831</v>
       </c>
       <c r="E98">
-        <v>-0.1398375803448916</v>
+        <v>0.02003942256048948</v>
       </c>
       <c r="F98">
-        <v>-0.1167693125672948</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.2402251237373793</v>
+      </c>
+      <c r="G98">
+        <v>0.08556259778350198</v>
+      </c>
+      <c r="H98">
+        <v>-0.0879409449003198</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.004350658529116025</v>
+        <v>0.003819490689852064</v>
       </c>
       <c r="C101">
-        <v>0.005170033564932187</v>
+        <v>-0.01873633966119575</v>
       </c>
       <c r="D101">
-        <v>0.02585142923054397</v>
+        <v>0.007411208446433265</v>
       </c>
       <c r="E101">
-        <v>-0.06715863592238021</v>
+        <v>0.03129469365244074</v>
       </c>
       <c r="F101">
-        <v>-0.1861801337716403</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.01582162057978857</v>
+      </c>
+      <c r="G101">
+        <v>-0.03742522616109088</v>
+      </c>
+      <c r="H101">
+        <v>0.02172767968482172</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1409178925445161</v>
+        <v>0.1131218238968034</v>
       </c>
       <c r="C102">
-        <v>-0.01582489643649528</v>
+        <v>-0.08766731104599358</v>
       </c>
       <c r="D102">
-        <v>0.04658530574760946</v>
+        <v>-0.002589323105378568</v>
       </c>
       <c r="E102">
-        <v>0.09362450275923473</v>
+        <v>-0.04666071772831055</v>
       </c>
       <c r="F102">
-        <v>0.05725465225585891</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.08036390989999789</v>
+      </c>
+      <c r="G102">
+        <v>-0.001857343557397198</v>
+      </c>
+      <c r="H102">
+        <v>0.02239722332281357</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04246888434367761</v>
+        <v>0.008053139283038522</v>
       </c>
       <c r="C103">
-        <v>0.0135042009249809</v>
+        <v>-0.008209158605909561</v>
       </c>
       <c r="D103">
-        <v>0.01706673264066431</v>
+        <v>-0.0001556211923511718</v>
       </c>
       <c r="E103">
-        <v>0.01838080578293022</v>
+        <v>-0.0007524590192983633</v>
       </c>
       <c r="F103">
-        <v>-0.002857990737250622</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01509778863448969</v>
+      </c>
+      <c r="G103">
+        <v>-0.01774191239562867</v>
+      </c>
+      <c r="H103">
+        <v>-0.005143839429604899</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.06377351685729864</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.04502946674361507</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9837106372868929</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.03813269464262917</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.01067090812461696</v>
+      </c>
+      <c r="G104">
+        <v>-0.03890360066589051</v>
+      </c>
+      <c r="H104">
+        <v>0.1143780144211624</v>
       </c>
     </row>
   </sheetData>
